--- a/PRODUTOS/Bazar/Bazar - Papelaria.xlsx
+++ b/PRODUTOS/Bazar/Bazar - Papelaria.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,6 +447,11 @@
           <t>Imagem</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>EAN</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -461,17 +466,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Pilha Duracell Pequena Aa C/4uni.</t>
+          <t>Saco M P/mini Lanche Festa Ali C/50</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>R$ 26,99</t>
+          <t>R$ 4,98</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d8bdb2de-c0b7-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7897991607157</t>
         </is>
       </c>
     </row>
@@ -488,17 +498,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Isqueiro Bic Maxi J6 Blister</t>
+          <t>Cola Three Bond 2gr</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>R$ 9,98</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/778de33f-04ba-43f0-a208-4aab3626f512.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a172ca57-aedf-4daf-82d8-a7976962439b.jpg</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7896020470427</t>
         </is>
       </c>
     </row>
@@ -528,6 +543,11 @@
           <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/31cb04c0-dacb-4a03-ac53-5be0f424174f.jpg</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7896067204030</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -542,314 +562,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Pilha Duracell Peq Aa C/02</t>
+          <t>Kit Pinças P/sobrancelhas Marco Boni C/2</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>R$ 17,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cb3e266e-2aec-4e19-bb2d-110726ab9136.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Papelaria</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Pilha Duracell Palito Aaa C/2</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>R$ 17,99</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d1a01244-c0b7-11e7-a6aa-063e6e4e9f3a.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Papelaria</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Pilha Duracell Palito Aaa C/04un</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>R$ 26,99</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c53c2486-0b4b-40e2-8d18-6edb3df5b167.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Papelaria</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Cola Three Bond 2gr</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>R$ 3,99</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a172ca57-aedf-4daf-82d8-a7976962439b.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Papelaria</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Isqueiro Pequeno Bic</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>R$ 7,99</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8567dcfe-c0b4-11e7-a6aa-063e6e4e9f3a.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Papelaria</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Pilha Duracell Grande C/2</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>R$ 62,99</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6c1c06cf-e45d-4af4-bc39-cacbe8d04fd8.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Papelaria</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Pilha Duracell Media C/ 02</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>R$ 46,98</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d5f56866-c0b7-11e7-a6aa-063e6e4e9f3a.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Papelaria</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Saco M P/mini Lanche Festa Ali C/50</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>R$ 4,98</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Papelaria</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Kit Pinças P/sobrancelhas Marco Boni C/2</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>R$ 6,99</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
           <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8111d7c5-e930-4f82-8d17-d0a850227a61.jpg</t>
         </is>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Papelaria</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Bateria Alcalina 9v Duracell</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>R$ 39,99</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3b04dd12-2807-49ca-adb3-5df77aba636b.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Papelaria</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Bateria Duracell Mn21 12volts C/2</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>R$ 38,99</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ced85403-0414-4863-b8f3-1c9f546bc04e.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Papelaria</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Caderno Espiral Starschool Univ Cars 240fls</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>R$ 21,93</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7896025503489</t>
         </is>
       </c>
     </row>
